--- a/DarkCounts/FinalDCR.xlsx
+++ b/DarkCounts/FinalDCR.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Master\Skripte\Auswertung\DarkCounts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E326F23B-6A6E-4FA7-9DEF-FD2BFB4473F3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2784313-67D1-4496-9AF7-DE88628D41A9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15435" yWindow="2040" windowWidth="13140" windowHeight="11385" xr2:uid="{D20109EA-5C08-4B53-9908-4116C6142453}"/>
+    <workbookView xWindow="825" yWindow="2775" windowWidth="13710" windowHeight="11385" xr2:uid="{D20109EA-5C08-4B53-9908-4116C6142453}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,21 +21,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
-  <si>
-    <t>DCR</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -56,6 +47,12 @@
   </si>
   <si>
     <t>Err Percen</t>
+  </si>
+  <si>
+    <t>DCR Thr</t>
+  </si>
+  <si>
+    <t>DCR 0.5</t>
   </si>
 </sst>
 </file>
@@ -433,7 +430,7 @@
   <dimension ref="F1:AH86"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="G18" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G34" sqref="G34:N34"/>
+      <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -478,7 +475,7 @@
     </row>
     <row r="2" spans="19:34" x14ac:dyDescent="0.25">
       <c r="S2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V2">
         <v>36.747177000000001</v>
@@ -872,7 +869,7 @@
     </row>
     <row r="19" spans="7:34" x14ac:dyDescent="0.25">
       <c r="G19" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V19">
         <v>33.698746</v>
@@ -1021,7 +1018,7 @@
     </row>
     <row r="23" spans="7:34" x14ac:dyDescent="0.25">
       <c r="G23" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="V23">
         <v>33.264915000000002</v>
@@ -1187,6 +1184,9 @@
       </c>
     </row>
     <row r="27" spans="7:34" x14ac:dyDescent="0.25">
+      <c r="G27" t="s">
+        <v>7</v>
+      </c>
       <c r="V27">
         <v>33.120505999999999</v>
       </c>
@@ -1210,15 +1210,42 @@
       </c>
     </row>
     <row r="28" spans="7:34" x14ac:dyDescent="0.25">
-      <c r="G28" s="2"/>
-      <c r="H28" s="2"/>
-      <c r="I28" s="2"/>
-      <c r="J28" s="2"/>
-      <c r="K28" s="2"/>
-      <c r="L28" s="2"/>
-      <c r="M28" s="2"/>
-      <c r="N28" s="2"/>
-      <c r="O28" s="2"/>
+      <c r="G28" s="3">
+        <f>G34/G39</f>
+        <v>815338.03141992318</v>
+      </c>
+      <c r="H28" s="3">
+        <f t="shared" ref="H28:O28" si="1">H34/H39</f>
+        <v>818769.8596109947</v>
+      </c>
+      <c r="I28" s="3">
+        <f t="shared" si="1"/>
+        <v>839532.42016697477</v>
+      </c>
+      <c r="J28" s="3">
+        <f t="shared" si="1"/>
+        <v>831832.25566325919</v>
+      </c>
+      <c r="K28" s="3">
+        <f t="shared" si="1"/>
+        <v>842663.96339132753</v>
+      </c>
+      <c r="L28" s="3">
+        <f t="shared" si="1"/>
+        <v>827542.47042442008</v>
+      </c>
+      <c r="M28" s="3">
+        <f t="shared" si="1"/>
+        <v>824904.25250253454</v>
+      </c>
+      <c r="N28" s="3">
+        <f t="shared" si="1"/>
+        <v>832432.82559669681</v>
+      </c>
+      <c r="O28" s="3">
+        <f t="shared" si="1"/>
+        <v>850900.35104989854</v>
+      </c>
       <c r="V28">
         <v>32.809761000000002</v>
       </c>
@@ -1242,15 +1269,42 @@
       </c>
     </row>
     <row r="29" spans="7:34" x14ac:dyDescent="0.25">
-      <c r="G29" s="2"/>
-      <c r="H29" s="2"/>
-      <c r="I29" s="2"/>
-      <c r="J29" s="2"/>
-      <c r="K29" s="2"/>
-      <c r="L29" s="2"/>
-      <c r="M29" s="2"/>
-      <c r="N29" s="2"/>
-      <c r="O29" s="2"/>
+      <c r="G29" s="3">
+        <f>SQRT((G36/G39)^2+(G34*G40/G39^2)^2)</f>
+        <v>5514.1333350956256</v>
+      </c>
+      <c r="H29" s="3">
+        <f t="shared" ref="H29:O29" si="2">SQRT((H36/H39)^2+(H34*H40/H39^2)^2)</f>
+        <v>6046.8157632487346</v>
+      </c>
+      <c r="I29" s="3">
+        <f t="shared" si="2"/>
+        <v>5660.9461503921311</v>
+      </c>
+      <c r="J29" s="3">
+        <f t="shared" si="2"/>
+        <v>5728.9630367446043</v>
+      </c>
+      <c r="K29" s="3">
+        <f t="shared" si="2"/>
+        <v>5423.2110438535256</v>
+      </c>
+      <c r="L29" s="3">
+        <f t="shared" si="2"/>
+        <v>5755.5540461338824</v>
+      </c>
+      <c r="M29" s="3">
+        <f t="shared" si="2"/>
+        <v>5778.3547819368796</v>
+      </c>
+      <c r="N29" s="3">
+        <f t="shared" si="2"/>
+        <v>5511.4053969535889</v>
+      </c>
+      <c r="O29" s="3">
+        <f t="shared" si="2"/>
+        <v>5468.2723294672915</v>
+      </c>
       <c r="V29">
         <v>32.784126000000001</v>
       </c>
@@ -1298,7 +1352,7 @@
     </row>
     <row r="31" spans="7:34" x14ac:dyDescent="0.25">
       <c r="G31" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="V31">
         <v>38.617736999999998</v>
@@ -1450,7 +1504,7 @@
     </row>
     <row r="35" spans="6:34" x14ac:dyDescent="0.25">
       <c r="F35" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G35" s="1">
         <v>7.6378756030777394E-3</v>
@@ -1503,7 +1557,7 @@
     </row>
     <row r="36" spans="6:34" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F36" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G36" s="6">
         <v>1.2025493039922468E-4</v>
@@ -1579,10 +1633,10 @@
     </row>
     <row r="38" spans="6:34" x14ac:dyDescent="0.25">
       <c r="G38" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K38" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="V38">
         <v>79.679214000000002</v>
@@ -1710,7 +1764,7 @@
     </row>
     <row r="41" spans="6:34" x14ac:dyDescent="0.25">
       <c r="O41" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V41">
         <v>35.087463</v>
